--- a/data/income_statement/2digits/size/01_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/01_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>01-Crop and animal production, hunting and related service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>01-Crop and animal production, hunting and related service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>682245.2010300001</v>
+        <v>786946.9716000002</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>782661.77037</v>
+        <v>899312.2045399999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>774656.05582</v>
+        <v>932383.27059</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>789674.4702399999</v>
+        <v>1003913.56641</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>841284.4848100001</v>
+        <v>1077544.86699</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>728955.4672899999</v>
+        <v>984100.60994</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>925121.50663</v>
+        <v>1253933.6763</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>746507.00222</v>
+        <v>1135931.12983</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>707227.6718400001</v>
+        <v>1116933.40335</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2291948.23198</v>
+        <v>2980110.4429</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2682178.33825</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3656088.650729999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3801600.446</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>648803.77338</v>
+        <v>746451.2304</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>751855.5271300001</v>
+        <v>862074.80303</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>747999.89532</v>
+        <v>897338.1797299999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>754981.74449</v>
+        <v>957257.1039700001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>796966.82596</v>
+        <v>1014492.26223</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>693492.8012800001</v>
+        <v>928318.14299</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>892468.89154</v>
+        <v>1201092.26912</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>713493.40307</v>
+        <v>1073200.04376</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>673518.3976800001</v>
+        <v>1053515.10979</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2145576.17896</v>
+        <v>2787327.59793</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2501965.852039999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3422165.6784</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3494540.408</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>20553.08237</v>
+        <v>21260.39753</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>14946.89079</v>
+        <v>15704.92735</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>11062.63442</v>
+        <v>12369.20865</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>15678.57864</v>
+        <v>16286.81267</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>25827.68058</v>
+        <v>28794.19227</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>18862.20102</v>
+        <v>23466.98213</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>16020.83273</v>
+        <v>19020.33107</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>16194.02894</v>
+        <v>20335.53063</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>12328.07601</v>
+        <v>18913.13464</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>91115.89234999999</v>
+        <v>101797.62632</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>115805.46193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>128005.88632</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>188359.059</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>12888.34528</v>
+        <v>19235.34367</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>15859.35245</v>
+        <v>21532.47416000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>15593.52608</v>
+        <v>22675.88221</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>19014.14711</v>
+        <v>30369.64977</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>18489.97827</v>
+        <v>34258.41249</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>16600.46499</v>
+        <v>32315.48482</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>16631.78236</v>
+        <v>33821.07611</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>16819.57021</v>
+        <v>42395.55544</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>21381.19815</v>
+        <v>44505.15892</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>55256.16067</v>
+        <v>90985.21865</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>64407.02428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>105917.08601</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>118700.979</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2103.08551</v>
+        <v>3070.68039</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2617.23141</v>
+        <v>3569.28707</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2412.09804</v>
+        <v>2802.01764</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2079.32294</v>
+        <v>8403.548769999998</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>6254.24099</v>
+        <v>9484.221009999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1748.51129</v>
+        <v>2992.92662</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2457.70182</v>
+        <v>4024.39354</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1565.74133</v>
+        <v>3522.70688</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1806.45517</v>
+        <v>2922.12703</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>5398.356019999999</v>
+        <v>8518.784049999998</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>7912.689449999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12212.72509</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>32823.379</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1528.05816</v>
+        <v>2230.5028</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1898.31451</v>
+        <v>2387.53818</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1868.62454</v>
+        <v>2243.68137</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1489.3944</v>
+        <v>6607.24659</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>5450.69191</v>
+        <v>8325.972220000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1582.70341</v>
+        <v>2618.226</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2403.77104</v>
+        <v>3781.77352</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1149.58885</v>
+        <v>2938.13111</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1200.85821</v>
+        <v>2243.42078</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>4181.553849999999</v>
+        <v>5722.89996</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>6696.98244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>10140.5033</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>29754.164</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>421.713</v>
+        <v>446.02359</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>541.00506</v>
+        <v>847.8274</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>385.97066</v>
+        <v>389.67038</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>125.96634</v>
+        <v>171.90071</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>91.1537</v>
+        <v>305.41266</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>31.15053</v>
+        <v>224.44683</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>41.8511</v>
+        <v>121.91071</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>266.92952</v>
+        <v>404.8013099999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>71.72062</v>
+        <v>136.4511</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>732.27928</v>
+        <v>1720.27785</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>794.6359199999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>937.6956899999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1473.804</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>153.31435</v>
+        <v>394.154</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>177.91184</v>
+        <v>333.9214900000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>157.50284</v>
+        <v>168.66589</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>463.9622</v>
+        <v>1624.40147</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>712.39538</v>
+        <v>852.8361299999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>134.65735</v>
+        <v>150.25379</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>12.07968</v>
+        <v>120.70931</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>149.22296</v>
+        <v>179.77446</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>533.8763399999999</v>
+        <v>542.2551500000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>484.52289</v>
+        <v>1075.60624</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>421.07109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1134.5261</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1595.411</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>680142.11552</v>
+        <v>783876.2912100001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>780044.53896</v>
+        <v>895742.91747</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>772243.9577799999</v>
+        <v>929581.25295</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>787595.1473</v>
+        <v>995510.0176399999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>835030.2438200001</v>
+        <v>1068060.64598</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>727206.956</v>
+        <v>981107.68332</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>922663.8048099999</v>
+        <v>1249909.28276</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>744941.2608899999</v>
+        <v>1132408.42295</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>705421.2166700001</v>
+        <v>1114011.27632</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2286549.875959999</v>
+        <v>2971591.658849999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2674265.6488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3643875.92564</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3768777.067</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>583319.44317</v>
+        <v>669325.9411500001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>677322.3270500001</v>
+        <v>771755.4877199999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>665248.48187</v>
+        <v>801112.8819000002</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>689918.94629</v>
+        <v>865311.1272700001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>724493.5751499999</v>
+        <v>912498.72465</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>614806.69728</v>
+        <v>815049.8722600001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>814538.1761999999</v>
+        <v>1075636.36627</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>644944.1311700001</v>
+        <v>952215.5358699999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>590626.52937</v>
+        <v>913302.47861</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1936381.82016</v>
+        <v>2499143.061230001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2328284.9599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3162416.27347</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3194296.297</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>153319.34378</v>
+        <v>197140.32842</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>178464.54333</v>
+        <v>228666.26033</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>171569.78975</v>
+        <v>244747.39682</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>161783.21188</v>
+        <v>262952.4222</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>170297.50477</v>
+        <v>273748.50906</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>158648.21434</v>
+        <v>262187.06356</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>157236.18028</v>
+        <v>290130.13855</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>147385.15774</v>
+        <v>296237.94687</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>121898.07444</v>
+        <v>279599.80802</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>621336.34042</v>
+        <v>972871.224</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>636705.5660399999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1107312.431</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1162830.708</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>388868.46784</v>
+        <v>420295.57714</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>445025.10587</v>
+        <v>476310.7085099999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>431615.54449</v>
+        <v>478121.16624</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>448829.11166</v>
+        <v>498770.77595</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>482871.56388</v>
+        <v>537109.7037899999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>387981.93891</v>
+        <v>445740.85548</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>581121.8483200001</v>
+        <v>654062.24989</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>397210.20202</v>
+        <v>487837.49791</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>373634.47812</v>
+        <v>464327.002</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1105444.38573</v>
+        <v>1253790.55985</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1388068.31143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1639181.76342</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1599325.786</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>38088.19695</v>
+        <v>47643.10353</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>50725.25116000001</v>
+        <v>62250.13445999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>59971.22012999999</v>
+        <v>74485.69359</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>75678.80888999999</v>
+        <v>97241.92357</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>65626.49331000001</v>
+        <v>91953.54111999999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>61858.28316000001</v>
+        <v>95979.22782</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>70552.65834000001</v>
+        <v>121842.12347</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>93317.43839999998</v>
+        <v>152627.13303</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>87965.28893</v>
+        <v>157835.59766</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>193846.44472</v>
+        <v>246333.13486</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>281270.50135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>379010.67298</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>398840.465</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3043.4346</v>
+        <v>4246.93206</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>3107.42669</v>
+        <v>4528.38442</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2091.9275</v>
+        <v>3758.62525</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>3627.813859999999</v>
+        <v>6346.00555</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>5698.013190000001</v>
+        <v>9686.97068</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>6318.26087</v>
+        <v>11142.7254</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>5627.489259999999</v>
+        <v>9601.854360000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>7031.333009999999</v>
+        <v>15512.95806</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>7128.687879999999</v>
+        <v>11540.07093</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>15754.64929</v>
+        <v>26148.14252</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>22240.58108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>36911.40606999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>33299.338</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>96822.67234999999</v>
+        <v>114550.35006</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>102722.21191</v>
+        <v>123987.42975</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>106995.47591</v>
+        <v>128468.37105</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>97676.20101</v>
+        <v>130198.89037</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>110536.66867</v>
+        <v>155561.92133</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>112400.25872</v>
+        <v>166057.81106</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>108125.62861</v>
+        <v>174272.91649</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>99997.12972000001</v>
+        <v>180192.88708</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>114794.6873</v>
+        <v>200708.79771</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>350168.0558</v>
+        <v>472448.59762</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>345980.6889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>481459.65217</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>574480.77</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>97088.0999</v>
+        <v>126926.94233</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>107172.99636</v>
+        <v>143843.14792</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>115324.77255</v>
+        <v>170891.79801</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>117452.34239</v>
+        <v>190058.20158</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>127245.63147</v>
+        <v>209117.9775</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>124083.94393</v>
+        <v>222985.15334</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>128070.82293</v>
+        <v>244692.51988</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>139015.41774</v>
+        <v>274595.33601</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>144384.88349</v>
+        <v>286157.3794</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>386185.87935</v>
+        <v>553501.56837</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>397304.485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>601290.40359</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>701481.427</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>197.75187</v>
+        <v>483.99528</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>633.8800799999999</v>
+        <v>1011.56243</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>856.8898500000001</v>
+        <v>1408.11592</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1026.43448</v>
+        <v>1068.54261</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>920.3874499999999</v>
+        <v>1589.06021</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>931.86612</v>
+        <v>1390.27547</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1197.02741</v>
+        <v>1453.41328</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>679.65202</v>
+        <v>759.58769</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>388.8705</v>
+        <v>1304.78052</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2467.207960000001</v>
+        <v>2888.69199</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2708.93205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3595.72214</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2782.506</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>17287.1896</v>
+        <v>21840.55889</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>18967.36454</v>
+        <v>23287.73321</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>20367.70124</v>
+        <v>27052.5708</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>17468.35624</v>
+        <v>23892.61182</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>19273.39901</v>
+        <v>27236.43167</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>13950.18185</v>
+        <v>23048.21891</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>14796.20847</v>
+        <v>24658.61454</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>16298.34808</v>
+        <v>28213.43952</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>15795.97605</v>
+        <v>28418.84207</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>53168.44516</v>
+        <v>66522.23612</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>57568.99682</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>76638.17170000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>81534.791</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>79603.15843</v>
+        <v>104602.38816</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>87571.75173999999</v>
+        <v>119543.85228</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>94100.18146000001</v>
+        <v>142431.11129</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>98957.55167</v>
+        <v>165097.04715</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>107051.84501</v>
+        <v>180292.48562</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>109201.89596</v>
+        <v>198546.65896</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>112077.58705</v>
+        <v>218580.49206</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>122037.41764</v>
+        <v>245622.3088</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>128200.03694</v>
+        <v>256433.75681</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>330550.22623</v>
+        <v>484090.64026</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>337026.55613</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>521056.50975</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>617164.13</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-265.4275500000002</v>
+        <v>-12376.59227</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-4450.78445</v>
+        <v>-19855.71817</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-8329.296639999999</v>
+        <v>-42423.42696</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-19776.14137999999</v>
+        <v>-59859.31121</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-16708.9628</v>
+        <v>-53556.05617</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-11683.68521</v>
+        <v>-56927.34228</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-19945.19432</v>
+        <v>-70419.60339</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-39018.28802</v>
+        <v>-94402.44893</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-29590.19619</v>
+        <v>-85448.58168999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-36017.82354999999</v>
+        <v>-81052.97074999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-51323.7961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-119830.75142</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-127000.657</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5440.979770000001</v>
+        <v>18564.89021</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>5423.500919999999</v>
+        <v>20506.81902</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>6626.75224</v>
+        <v>35619.42689</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>7323.35457</v>
+        <v>25586.45596</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>7914.201940000001</v>
+        <v>30849.13829</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>8754.087810000001</v>
+        <v>41227.46605</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>11222.77953</v>
+        <v>57267.78839</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>9556.602730000001</v>
+        <v>66959.257</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>35078.3446</v>
+        <v>104092.59626</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>43585.83492999999</v>
+        <v>231105.29047</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>31416.55711</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>282311.99271</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>206706.658</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>4.157</v>
+        <v>1908.157</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>32.62306</v>
+        <v>3840.25135</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>26.48428</v>
+        <v>2918.74024</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>64.89121</v>
+        <v>4988.66549</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>23.08671</v>
+        <v>4786.30099</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>62.39356</v>
+        <v>10612.11623</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4.344069999999999</v>
+        <v>14394.05694</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>6.31624</v>
+        <v>13793.51409</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>5.19427</v>
+        <v>13717.11311</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>146.11948</v>
+        <v>21994.0248</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>248.02054</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>134349.52134</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>31177.998</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0.69143</v>
@@ -1820,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>2.65367</v>
+        <v>20.27087</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>0</v>
@@ -1829,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>1461.4884</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0</v>
@@ -1838,235 +1854,265 @@
         <v>1.29157</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2.82035</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>9194.82035</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>12992.596</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>675.21962</v>
+        <v>2478.17434</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>466.72231</v>
+        <v>2849.744369999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>662.42401</v>
+        <v>4486.77923</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>717.56865</v>
+        <v>3615.873630000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>531.02411</v>
+        <v>3746.35753</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>766.1391099999998</v>
+        <v>4923.16859</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>818.9828100000001</v>
+        <v>5720.86592</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1163.12299</v>
+        <v>7141.080849999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>816.83894</v>
+        <v>13728.18536</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>6134.356860000001</v>
+        <v>27010.77981</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6480.072990000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>29457.59835</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>15800.449</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>48.67661</v>
+        <v>48.67952</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>89.75331</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>36.0541</v>
+        <v>76.06523999999999</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>47.42955</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>32.17349</v>
+        <v>35.61293</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>22.53893</v>
+        <v>24.61426</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>104.20522</v>
+        <v>491.17674</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>23.57282</v>
+        <v>49.59161999999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>0.89606</v>
+        <v>6.301469999999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>222.41126</v>
+        <v>223.66126</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>7.899529999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>33.684</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1108.45559</v>
+        <v>1119.93835</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>615.24949</v>
+        <v>616.3205400000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>744.5831899999999</v>
+        <v>744.62715</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>419.20519</v>
+        <v>1510.85148</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>201.32206</v>
+        <v>910.1575600000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>118.21639</v>
+        <v>135.20645</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>71.721</v>
+        <v>826.2180499999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>54.75678</v>
+        <v>99.53144</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>332.19676</v>
+        <v>367.53412</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>42.3406</v>
+        <v>677.29579</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>251.84775</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>716.7591299999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2204.834</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>23.72225</v>
+        <v>386.6722799999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>11.40003</v>
+        <v>54.94732</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>129.48659</v>
+        <v>237.24496</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>102.76484</v>
+        <v>216.55769</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>184.07479</v>
+        <v>1167.34711</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>47.22058</v>
+        <v>181.30669</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>218.42856</v>
+        <v>971.13009</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>25.71745</v>
+        <v>1288.4607</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>294.9962700000001</v>
+        <v>1446.13442</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>570.30933</v>
+        <v>2127.96865</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>872.73339</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2677.05885</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1454.346</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>506.56438</v>
+        <v>3683.360770000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>372.08217</v>
+        <v>4686.5338</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>866.70123</v>
+        <v>15669.89731</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>310.37612</v>
+        <v>2863.28688</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>833.85367</v>
+        <v>6188.704989999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1006.05991</v>
+        <v>4978.078320000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1298.0044</v>
+        <v>13391.58241</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>898.4681100000001</v>
+        <v>17571.13314</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1234.05239</v>
+        <v>16393.73214</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>18693.56167</v>
+        <v>134978.64201</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>8071.33547</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>55609.30718000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>83930.088</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0</v>
+        <v>1.02674</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0</v>
+        <v>0.7277400000000001</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>46.27098</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>0</v>
+        <v>51.13281</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>0.84</v>
+        <v>6.51363</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>0</v>
+        <v>81.91874</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>0</v>
+        <v>65.03456</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>14.76625</v>
+        <v>22.32455</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>4.41971</v>
@@ -2074,29 +2120,34 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0.676</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>1.04829</v>
+        <v>3.48884</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>10.86591</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>12.25105</v>
+        <v>47.13935</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>4.19745</v>
+        <v>17.93863</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>42.18817</v>
+        <v>57.02112</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>9.15109</v>
+        <v>24.84112</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>3.97526</v>
@@ -2113,254 +2164,289 @@
       <c r="M34" s="48" t="n">
         <v>2.33065</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>47.311</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3072.4446</v>
+        <v>8934.700940000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3824.80464</v>
+        <v>8357.67468</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>4059.06012</v>
+        <v>11349.22574</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>5656.921560000001</v>
+        <v>12274.7198</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>6062.985269999998</v>
+        <v>13930.85156</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>6722.36824</v>
+        <v>20348.13439</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>8703.118210000001</v>
+        <v>21386.86424</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>7384.64834</v>
+        <v>25489.4222</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>32379.40366</v>
+        <v>58411.27109</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>17751.12207</v>
+        <v>44067.30449</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>15479.49644</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>50296.69733</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>59064.676</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>2736.01125</v>
+        <v>6439.70906</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1979.15661</v>
+        <v>7265.85225</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>4340.88349</v>
+        <v>21758.93592</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2163.37406</v>
+        <v>6194.880270000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3720.41748</v>
+        <v>13100.90139</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4170.461679999999</v>
+        <v>16343.32341</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6235.10616</v>
+        <v>18552.41054</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2976.55305</v>
+        <v>19080.55088</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4768.16066</v>
+        <v>28192.04847</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>23558.88363</v>
+        <v>146743.72675</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>20830.17628</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>71520.83336999999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>128758.064</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>192.45103</v>
+        <v>251.90147</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>136.85872</v>
+        <v>226.33177</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>148.11615</v>
+        <v>299.53613</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>161.78578</v>
+        <v>241.22065</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>83.49641</v>
+        <v>345.05213</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>100.38666</v>
+        <v>216.16283</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>178.50419</v>
+        <v>263.8742</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>92.04209</v>
+        <v>344.14444</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>128.43663</v>
+        <v>314.11055</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>350.8504</v>
+        <v>613.6496299999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>834.79668</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1045.8406</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>743.407</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>678.75262</v>
+        <v>905.3613700000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>157.62122</v>
+        <v>252.10377</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1999.76742</v>
+        <v>2045.06491</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>354.11142</v>
+        <v>740.73954</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>213.87424</v>
+        <v>379.3397</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1173.6174</v>
+        <v>1310.19596</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>655.0414500000001</v>
+        <v>1110.82057</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>106.97909</v>
+        <v>1171.462</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>5.55301</v>
+        <v>2961.56405</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1495.07961</v>
+        <v>2292.50611</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1386.05665</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1590.78862</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2328.091</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>0</v>
+        <v>135.70295</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>6.04631</v>
+        <v>10.92556</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1.48484</v>
+        <v>2.18124</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>68.76373999999998</v>
+        <v>300.96994</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>27.46199</v>
+        <v>2396.47194</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>49.15642</v>
+        <v>61.32707</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>4.25687</v>
+        <v>11.21781</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0.6335700000000001</v>
+        <v>796.33014</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>299.1979</v>
+        <v>567.4252700000001</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>82.07939999999999</v>
+        <v>856.1569400000001</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>11.89971</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>28.07388</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>35.153</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>454.74188</v>
+        <v>2569.86056</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>408.6056100000001</v>
+        <v>4649.9693</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>426.5160299999999</v>
+        <v>16274.64597</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>414.2218</v>
+        <v>2347.48069</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1411.98428</v>
+        <v>5567.53793</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>890.8890600000001</v>
+        <v>3108.67419</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1400.03849</v>
+        <v>9901.872580000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>913.9132900000002</v>
+        <v>12501.61192</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1022.54137</v>
+        <v>16766.22673</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>16905.44187</v>
+        <v>130745.01165</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>14843.82714</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>60777.05639</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>104127.064</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0</v>
+        <v>5.078060000000001</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0</v>
+        <v>5.522819999999999</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>0.34774</v>
+        <v>5.76708</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>16.51968</v>
@@ -2369,52 +2455,57 @@
         <v>0</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0</v>
+        <v>0.6215499999999999</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>15.49198</v>
+        <v>64.02525999999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>55.70500999999999</v>
+        <v>101.0174</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>16.55927</v>
+        <v>88.75797999999999</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>276.20273</v>
+        <v>449.98148</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>144.56967</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>239.777</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>0.63</v>
+        <v>13.34187</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>7.29561</v>
+        <v>18.21331</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>0</v>
+        <v>6.08455</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>0</v>
+        <v>397.27326</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0</v>
+        <v>1.08169</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0</v>
+        <v>18.06487</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1410.06572</v>
+        <v>2571.80465</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1269.39475</v>
+        <v>2107.65716</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1757.3557</v>
+        <v>3113.52728</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1147.97164</v>
+        <v>2541.86522</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1983.60056</v>
+        <v>4015.22643</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1956.41214</v>
+        <v>11646.34181</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3981.77318</v>
+        <v>7199.518430000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1807.28</v>
+        <v>4147.92011</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3295.87248</v>
+        <v>7493.963890000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>4449.22962</v>
+        <v>11786.42094</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3609.02643</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>7934.504209999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>21284.572</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>6640.80561</v>
+        <v>12335.2575</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>5303.218589999999</v>
+        <v>11235.56977</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>5181.51666</v>
+        <v>16278.13403</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>5732.729</v>
+        <v>19664.17223</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>6039.30113</v>
+        <v>21133.13796</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>7249.912549999999</v>
+        <v>26676.07963</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6717.57941</v>
+        <v>30707.50532000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>8132.20621</v>
+        <v>44624.73273999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>9190.895259999998</v>
+        <v>48646.79280999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>46427.00276</v>
+        <v>106107.30874</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>43432.12775999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>103600.92504</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>133541.432</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>5890.17291</v>
+        <v>11041.14367</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>5026.08811</v>
+        <v>10284.10943</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>4533.91629</v>
+        <v>14680.40598</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>5166.09316</v>
+        <v>17924.80774</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5577.1536</v>
+        <v>19025.43186</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>6563.903979999999</v>
+        <v>24516.44321</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>6025.195940000001</v>
+        <v>28206.19792</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>7279.60186</v>
+        <v>41424.50272</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>8061.221529999999</v>
+        <v>45111.06830000001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>43322.65572</v>
+        <v>97062.84947999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>39597.84112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>94290.33662999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>124476.237</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>750.6327</v>
+        <v>1294.11383</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>277.13048</v>
+        <v>951.4603400000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>647.60037</v>
+        <v>1597.72805</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>566.6358399999999</v>
+        <v>1739.36449</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>462.14753</v>
+        <v>2107.706099999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>686.0085700000001</v>
+        <v>2159.63642</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>692.38347</v>
+        <v>2501.3074</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>852.6043500000001</v>
+        <v>3200.23002</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1129.67373</v>
+        <v>3535.72451</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>3104.34704</v>
+        <v>9044.45926</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3834.28664</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>9310.58841</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>9065.195</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-4201.26464</v>
+        <v>-12586.66862</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-6309.658729999999</v>
+        <v>-17850.32117</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-11224.94455</v>
+        <v>-44841.07002</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-20348.88987</v>
+        <v>-60131.90775</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-18554.47947</v>
+        <v>-56940.95723000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-14349.97163</v>
+        <v>-58719.27927</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-21675.10036</v>
+        <v>-62411.73086</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-40570.44455</v>
+        <v>-91148.47555</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-8470.907509999999</v>
+        <v>-58194.82671000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-62417.87501</v>
+        <v>-102798.71577</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-84169.54303</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-12640.51711999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-182593.495</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>4985.07548</v>
+        <v>17463.96359</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>6674.11567</v>
+        <v>35093.57939</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5705.15646</v>
+        <v>14453.90389</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6358.772690000001</v>
+        <v>37086.96908</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>7577.637779999999</v>
+        <v>30711.16062</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>11217.77117</v>
+        <v>29040.58747</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>9098.774439999999</v>
+        <v>39933.66553</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>9083.739019999999</v>
+        <v>59049.83286</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>9254.827000000001</v>
+        <v>37483.91148</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>27055.72977</v>
+        <v>61690.81884000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>36481.0133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>90622.37453</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>108042.618</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>66.21839999999999</v>
+        <v>77.52651</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>11.96978</v>
+        <v>117.06529</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>156.80115</v>
+        <v>284.00214</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>306.8206299999999</v>
+        <v>706.3855399999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>356.54613</v>
+        <v>371.7649</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>56.43529</v>
+        <v>162.80976</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>111.10098</v>
+        <v>1222.20514</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>44.97389</v>
+        <v>145.58116</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>78.15199000000001</v>
+        <v>99.07839</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>15.57934</v>
+        <v>58.24027</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>650.58851</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>926.6256200000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>820.42</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>4918.85708</v>
+        <v>17386.43708</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>6662.145890000001</v>
+        <v>34976.5141</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5548.35531</v>
+        <v>14169.90175</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>6051.95206</v>
+        <v>36380.58354</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>7221.091649999999</v>
+        <v>30339.39572</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>11161.33588</v>
+        <v>28877.77771</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>8987.673460000002</v>
+        <v>38711.46038999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>9038.765130000002</v>
+        <v>58904.25169999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>9176.675009999999</v>
+        <v>37384.83308999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>27040.15043</v>
+        <v>61632.57857</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>35830.42479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>89695.74890999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>107222.198</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>7414.127060000001</v>
+        <v>14997.56813</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5476.381069999999</v>
+        <v>11464.67426</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>25663.3177</v>
+        <v>35456.92821</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>5970.129609999999</v>
+        <v>15893.13561</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>9295.409679999999</v>
+        <v>18333.91574</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>18133.9426</v>
+        <v>32424.37243</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>13034.78148</v>
+        <v>42122.54176</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>20560.51282</v>
+        <v>49786.84733999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>12304.94322</v>
+        <v>33858.20411999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>54868.88290999999</v>
+        <v>87037.76316000002</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>34332.79506</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>76298.71650999998</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>78606.196</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>504.82865</v>
+        <v>521.6184499999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>343.96248</v>
+        <v>1401.81636</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>560.3257000000001</v>
+        <v>1696.39966</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>305.11247</v>
+        <v>1013.39142</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>266.89761</v>
+        <v>1828.006</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>548.30522</v>
+        <v>2296.20907</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>489.79162</v>
+        <v>2955.149789999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>557.6326700000001</v>
+        <v>5264.919169999999</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>413.2555400000001</v>
+        <v>5239.49309</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1216.91244</v>
+        <v>4128.37755</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1369.48303</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>5106.279149999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>4752.318</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>354.08991</v>
+        <v>432.09766</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>474.03985</v>
+        <v>597.2315</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>378.20723</v>
+        <v>464.85857</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>455.48491</v>
+        <v>869.1798200000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>971.9917100000001</v>
+        <v>1213.7642</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1124.50847</v>
+        <v>1452.70372</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>629.1274199999999</v>
+        <v>1374.34339</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>578.8122099999999</v>
+        <v>1430.48417</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>517.7852300000001</v>
+        <v>847.2546799999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1453.29748</v>
+        <v>1750.57801</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1491.13843</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2077.013</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3598.602</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6555.2085</v>
+        <v>14043.85202</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4658.378739999999</v>
+        <v>9465.626400000003</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>24724.78477</v>
+        <v>33295.66998</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>5209.53223</v>
+        <v>14010.56437</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>8056.52036</v>
+        <v>15292.14554</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>16461.12891</v>
+        <v>28675.45964</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>11915.86244</v>
+        <v>37793.04858</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>19424.06794</v>
+        <v>43091.444</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>11373.90245</v>
+        <v>27771.45635</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>52198.67299</v>
+        <v>81158.80760000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>31472.1736</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>69115.42436</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>70255.276</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-6630.31622</v>
+        <v>-10120.27316</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-5111.924130000001</v>
+        <v>5778.583959999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-31183.10578999999</v>
+        <v>-65844.09434</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-19960.24678999999</v>
+        <v>-38938.07428</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-20272.25137</v>
+        <v>-44563.71235</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-21266.14306</v>
+        <v>-62103.06423</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-25611.1074</v>
+        <v>-64600.60709</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-52047.21835</v>
+        <v>-81885.49003</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-11521.02373</v>
+        <v>-54569.11934999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-90231.02815</v>
+        <v>-128145.66009</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-82021.32479000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1683.140899999991</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-153157.073</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2839.30411</v>
+        <v>3682.87237</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3516.46183</v>
+        <v>7582.2545</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>3483.64718</v>
+        <v>4871.49135</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2769.311349999999</v>
+        <v>4821.04514</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3825.19333</v>
+        <v>6319.41773</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>3455.55273</v>
+        <v>6343.686750000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>3466.339489999999</v>
+        <v>7352.86924</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3106.87347</v>
+        <v>8446.09167</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>3127.56891</v>
+        <v>7653.793050000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>11032.74042</v>
+        <v>20344.40076</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>12382.99676</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>22208.86599</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>26099.707</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-9469.62033</v>
+        <v>-13803.14553</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-8628.38596</v>
+        <v>-1803.67054</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-34666.75297000001</v>
+        <v>-70715.58568999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-22729.55814</v>
+        <v>-43759.11942</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-24097.4447</v>
+        <v>-50883.13008</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-24721.69579</v>
+        <v>-68446.75097999998</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-29077.44689</v>
+        <v>-71953.47633</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-55154.09182</v>
+        <v>-90331.5817</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-14648.59264</v>
+        <v>-62222.91239999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-101263.76857</v>
+        <v>-148490.06085</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-94404.32155000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-20525.72509</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-179256.78</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3445</v>
+        <v>3760</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>4218</v>
+        <v>4698</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4301</v>
+        <v>4925</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4108</v>
+        <v>4836</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4193</v>
+        <v>5068</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4030</v>
+        <v>5140</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4251</v>
+        <v>5537</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4696</v>
+        <v>6201</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>4763</v>
+        <v>6346</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>6324</v>
+        <v>7349</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>6476</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>7866</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>8971</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>